--- a/biology/Médecine/Score_ISAR/Score_ISAR.xlsx
+++ b/biology/Médecine/Score_ISAR/Score_ISAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Score ISAR (Identification of Seniors At Risk[1]) est un questionnaire permettant une évaluation rapide d'une personne âgée hospitalisée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Score ISAR (Identification of Seniors At Risk) est un questionnaire permettant une évaluation rapide d'une personne âgée hospitalisée.
 Ce score devrait idéalement être réalisé dans les services d'urgences.
 Il permet de dépister les sujets âgés à risque (sujets fragiles, au sens gériatrique du terme) nécessitant une évaluation plus poussée réalisée par un gériatre.
 Il est constitué de six questions ciblées dont les réponses doivent être « oui » ou « non » :
